--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23434E6C-D642-4331-9496-E76D03EC7F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD481036-D52C-4E29-A5D1-51FF30DE70B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,8 +522,11 @@
       <c r="C2" s="3">
         <v>0.9415</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -533,8 +536,11 @@
       <c r="C3" s="4">
         <v>0.90459999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,8 +550,11 @@
       <c r="C4" s="5">
         <v>0.82440000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -555,8 +564,11 @@
       <c r="C5" s="6">
         <v>0.94220000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,8 +578,11 @@
       <c r="C6" s="7">
         <v>0.91180000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -577,8 +592,11 @@
       <c r="C7" s="5">
         <v>0.71099999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -588,8 +606,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -599,8 +620,11 @@
       <c r="C9" s="8">
         <v>0.89229999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -610,8 +634,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -621,8 +648,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -632,8 +662,11 @@
       <c r="C12" s="8">
         <v>0.83819999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -643,8 +676,11 @@
       <c r="C13" s="9">
         <v>0.83020000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -654,8 +690,11 @@
       <c r="C14" s="9">
         <v>0.73409999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -665,8 +704,11 @@
       <c r="C15" s="5">
         <v>0.78759999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -676,8 +718,11 @@
       <c r="C16" s="5">
         <v>0.72250000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -687,8 +732,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -698,8 +746,11 @@
       <c r="C18" s="5">
         <v>0.68279999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -709,8 +760,11 @@
       <c r="C19" s="5">
         <v>0.75649999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -720,8 +774,11 @@
       <c r="C20" s="3">
         <v>0.97109999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -731,8 +788,11 @@
       <c r="C21" s="10">
         <v>0.94940000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -742,8 +802,11 @@
       <c r="C22" s="5">
         <v>0.77529999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -753,8 +816,11 @@
       <c r="C23" s="4">
         <v>0.9133</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -764,8 +830,11 @@
       <c r="C24" s="4">
         <v>0.92630000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -775,8 +844,11 @@
       <c r="C25" s="7">
         <v>0.92989999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -786,8 +858,11 @@
       <c r="C26" s="3">
         <v>0.95809999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -797,8 +872,11 @@
       <c r="C27" s="5">
         <v>0.83160000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -808,8 +886,11 @@
       <c r="C28" s="3">
         <v>0.94440000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -819,8 +900,11 @@
       <c r="C29" s="5">
         <v>0.76729999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -830,8 +914,11 @@
       <c r="C30" s="5">
         <v>0.72829999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -841,8 +928,11 @@
       <c r="C31" s="4">
         <v>0.93059999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -852,8 +942,11 @@
       <c r="C32" s="5">
         <v>0.76949999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -863,8 +956,11 @@
       <c r="C33" s="4">
         <v>0.90820000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -874,8 +970,11 @@
       <c r="C34" s="6">
         <v>0.96819999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -885,8 +984,11 @@
       <c r="C35" s="5">
         <v>0.78469999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -896,8 +998,11 @@
       <c r="C36" s="8">
         <v>0.78180000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -907,8 +1012,11 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -918,8 +1026,11 @@
       <c r="C38" s="5">
         <v>0.85840000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -929,8 +1040,11 @@
       <c r="C39" s="4">
         <v>0.90459999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -940,8 +1054,11 @@
       <c r="C40" s="5">
         <v>0.76880000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -951,8 +1068,11 @@
       <c r="C41" s="4">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -962,8 +1082,11 @@
       <c r="C42" s="10">
         <v>0.97619999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -973,8 +1096,11 @@
       <c r="C43" s="9">
         <v>0.81499999999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -984,8 +1110,11 @@
       <c r="C44" s="5">
         <v>0.89090000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -995,8 +1124,11 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1006,8 +1138,11 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
         <v>3</v>
       </c>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD481036-D52C-4E29-A5D1-51FF30DE70B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696AC301-BCFC-4E78-860C-DBF3DC79389C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,7 +814,7 @@
         <v>0.94650000000000001</v>
       </c>
       <c r="C23" s="4">
-        <v>0.9133</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.87656888888888906</v>
+        <v>0.87703333333333355</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696AC301-BCFC-4E78-860C-DBF3DC79389C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25985E5F-4FCE-479B-A192-2B74A90FE0F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -169,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -188,6 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -519,8 +528,8 @@
       <c r="B2" s="3">
         <v>0.94579999999999997</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.9415</v>
+      <c r="C2" s="12">
+        <v>0.95089999999999997</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -660,7 +669,7 @@
         <v>0.81789999999999996</v>
       </c>
       <c r="C12" s="8">
-        <v>0.83819999999999995</v>
+        <v>0.8569</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -688,7 +697,7 @@
         <v>0.73340000000000005</v>
       </c>
       <c r="C14" s="9">
-        <v>0.73409999999999997</v>
+        <v>0.73919999999999997</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -702,7 +711,7 @@
         <v>0.84609999999999996</v>
       </c>
       <c r="C15" s="5">
-        <v>0.78759999999999997</v>
+        <v>0.80710000000000004</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -716,7 +725,7 @@
         <v>0.77380000000000004</v>
       </c>
       <c r="C16" s="5">
-        <v>0.72250000000000003</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1152,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.87703333333333355</v>
+        <v>0.87846222222222237</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25985E5F-4FCE-479B-A192-2B74A90FE0F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E00759-DBDF-49A2-AE08-9F41AB360A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,7 +753,7 @@
         <v>0.83240000000000003</v>
       </c>
       <c r="C18" s="5">
-        <v>0.68279999999999996</v>
+        <v>0.78180000000000005</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -767,7 +767,7 @@
         <v>0.95809999999999995</v>
       </c>
       <c r="C19" s="5">
-        <v>0.75649999999999995</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.87846222222222237</v>
+        <v>0.88149777777777794</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E00759-DBDF-49A2-AE08-9F41AB360A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F59F47-13D4-43CA-9127-C29CE579FADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,7 +543,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="C3" s="4">
-        <v>0.90459999999999996</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0.77380000000000004</v>
       </c>
       <c r="C16" s="5">
-        <v>0.73409999999999997</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -752,8 +752,8 @@
       <c r="B18" s="5">
         <v>0.83240000000000003</v>
       </c>
-      <c r="C18" s="5">
-        <v>0.78180000000000005</v>
+      <c r="C18" s="8">
+        <v>0.83599999999999997</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -767,7 +767,7 @@
         <v>0.95809999999999995</v>
       </c>
       <c r="C19" s="5">
-        <v>0.79410000000000003</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -837,7 +837,7 @@
         <v>0.9415</v>
       </c>
       <c r="C24" s="4">
-        <v>0.92630000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -851,7 +851,7 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="C25" s="7">
-        <v>0.92989999999999995</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -864,8 +864,8 @@
       <c r="B26" s="3">
         <v>0.9718</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.95809999999999995</v>
+      <c r="C26" s="6">
+        <v>0.97399999999999998</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -878,8 +878,8 @@
       <c r="B27" s="3">
         <v>0.94940000000000002</v>
       </c>
-      <c r="C27" s="5">
-        <v>0.83160000000000001</v>
+      <c r="C27" s="4">
+        <v>0.91110000000000002</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -907,7 +907,7 @@
         <v>0.88080000000000003</v>
       </c>
       <c r="C29" s="5">
-        <v>0.76729999999999998</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -991,7 +991,7 @@
         <v>0.83160000000000001</v>
       </c>
       <c r="C35" s="5">
-        <v>0.78469999999999995</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.88149777777777794</v>
+        <v>0.88779111111111131</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F59F47-13D4-43CA-9127-C29CE579FADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C474A-C9E0-496A-8618-C5561C1151C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,7 +697,7 @@
         <v>0.73340000000000005</v>
       </c>
       <c r="C14" s="9">
-        <v>0.73919999999999997</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -711,7 +711,7 @@
         <v>0.84609999999999996</v>
       </c>
       <c r="C15" s="5">
-        <v>0.80710000000000004</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>0.88080000000000003</v>
       </c>
       <c r="C29" s="5">
-        <v>0.80200000000000005</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -920,8 +920,8 @@
       <c r="B30" s="5">
         <v>0.76300000000000001</v>
       </c>
-      <c r="C30" s="5">
-        <v>0.72829999999999995</v>
+      <c r="C30" s="8">
+        <v>0.79990000000000006</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.88779111111111131</v>
+        <v>0.8901044444444447</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C474A-C9E0-496A-8618-C5561C1151C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CFE8C-E8EB-4434-817F-0C59FFE9A805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,8 +934,8 @@
       <c r="B31" s="3">
         <v>0.9617</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.93059999999999998</v>
+      <c r="C31" s="3">
+        <v>0.95520000000000005</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -991,7 +991,7 @@
         <v>0.83160000000000001</v>
       </c>
       <c r="C35" s="5">
-        <v>0.79910000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -1089,7 +1089,7 @@
         <v>0.96319999999999995</v>
       </c>
       <c r="C42" s="10">
-        <v>0.97619999999999996</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="D42">
         <v>14</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.8901044444444447</v>
+        <v>0.8911488888888891</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CFE8C-E8EB-4434-817F-0C59FFE9A805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F27916-90CE-45E6-9450-C286E2820D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -1033,7 +1033,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="C38" s="5">
-        <v>0.85840000000000005</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.8911488888888891</v>
+        <v>0.89143777777777788</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F27916-90CE-45E6-9450-C286E2820D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12579246-AE91-4814-89F6-9EF242A68980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -697,7 +697,7 @@
         <v>0.73340000000000005</v>
       </c>
       <c r="C14" s="9">
-        <v>0.74129999999999996</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="C25" s="7">
-        <v>0.93859999999999999</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -865,7 +865,7 @@
         <v>0.9718</v>
       </c>
       <c r="C26" s="6">
-        <v>0.97399999999999998</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -1005,7 +1005,7 @@
         <v>0.77310000000000001</v>
       </c>
       <c r="C36" s="8">
-        <v>0.78180000000000005</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -1033,7 +1033,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="C38" s="5">
-        <v>0.87139999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.89143777777777788</v>
+        <v>0.89402222222222238</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12579246-AE91-4814-89F6-9EF242A68980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27281874-CEFE-4A6E-B931-ADD53EA6A853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -725,7 +725,7 @@
         <v>0.77380000000000004</v>
       </c>
       <c r="C16" s="5">
-        <v>0.73839999999999995</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -767,7 +767,7 @@
         <v>0.95809999999999995</v>
       </c>
       <c r="C19" s="5">
-        <v>0.84750000000000003</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -809,7 +809,7 @@
         <v>0.82509999999999994</v>
       </c>
       <c r="C22" s="5">
-        <v>0.77529999999999999</v>
+        <v>0.7984</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -879,7 +879,7 @@
         <v>0.94940000000000002</v>
       </c>
       <c r="C27" s="4">
-        <v>0.91110000000000002</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -935,7 +935,7 @@
         <v>0.9617</v>
       </c>
       <c r="C31" s="3">
-        <v>0.95520000000000005</v>
+        <v>0.95660000000000001</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -949,7 +949,7 @@
         <v>0.78610000000000002</v>
       </c>
       <c r="C32" s="5">
-        <v>0.76949999999999996</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="D32">
         <v>11</v>
@@ -963,7 +963,7 @@
         <v>0.9133</v>
       </c>
       <c r="C33" s="4">
-        <v>0.90820000000000001</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -991,7 +991,7 @@
         <v>0.83160000000000001</v>
       </c>
       <c r="C35" s="5">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -1060,8 +1060,8 @@
       <c r="B40" s="5">
         <v>0.86050000000000004</v>
       </c>
-      <c r="C40" s="5">
-        <v>0.76880000000000004</v>
+      <c r="C40" s="8">
+        <v>0.86629999999999996</v>
       </c>
       <c r="D40">
         <v>13</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.89402222222222238</v>
+        <v>0.89972444444444466</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27281874-CEFE-4A6E-B931-ADD53EA6A853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F435FC-971B-49A9-AC5F-05A7EE042F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,7 +557,7 @@
         <v>0.83160000000000001</v>
       </c>
       <c r="C4" s="5">
-        <v>0.82440000000000002</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0.77380000000000004</v>
       </c>
       <c r="C16" s="5">
-        <v>0.74860000000000004</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -795,7 +795,7 @@
         <v>0.93569999999999998</v>
       </c>
       <c r="C21" s="10">
-        <v>0.94940000000000002</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -808,8 +808,8 @@
       <c r="B22" s="5">
         <v>0.82509999999999994</v>
       </c>
-      <c r="C22" s="5">
-        <v>0.7984</v>
+      <c r="C22" s="8">
+        <v>0.8468</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -836,8 +836,8 @@
       <c r="B24" s="3">
         <v>0.9415</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.93500000000000005</v>
+      <c r="C24" s="7">
+        <v>0.96599999999999997</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -879,7 +879,7 @@
         <v>0.94940000000000002</v>
       </c>
       <c r="C27" s="4">
-        <v>0.92410000000000003</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -893,7 +893,7 @@
         <v>0.94730000000000003</v>
       </c>
       <c r="C28" s="3">
-        <v>0.94440000000000002</v>
+        <v>0.94510000000000005</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -907,7 +907,7 @@
         <v>0.88080000000000003</v>
       </c>
       <c r="C29" s="5">
-        <v>0.81720000000000004</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -921,7 +921,7 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="C30" s="8">
-        <v>0.79990000000000006</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>0.9617</v>
       </c>
       <c r="C31" s="3">
-        <v>0.95660000000000001</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -977,7 +977,7 @@
         <v>0.94359999999999999</v>
       </c>
       <c r="C34" s="6">
-        <v>0.96819999999999995</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="D34">
         <v>11</v>
@@ -1033,7 +1033,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="C38" s="5">
-        <v>0.88800000000000001</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -1046,8 +1046,8 @@
       <c r="B39" s="4">
         <v>0.92049999999999998</v>
       </c>
-      <c r="C39" s="4">
-        <v>0.90459999999999996</v>
+      <c r="C39" s="7">
+        <v>0.94940000000000002</v>
       </c>
       <c r="D39">
         <v>13</v>
@@ -1089,7 +1089,7 @@
         <v>0.96319999999999995</v>
       </c>
       <c r="C42" s="10">
-        <v>0.98770000000000002</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="D42">
         <v>14</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.89972444444444466</v>
+        <v>0.90659333333333347</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F435FC-971B-49A9-AC5F-05A7EE042F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAE764-A779-414D-B451-06FB7336098E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,7 +711,7 @@
         <v>0.84609999999999996</v>
       </c>
       <c r="C15" s="5">
-        <v>0.82230000000000003</v>
+        <v>0.82589999999999997</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -808,7 +808,7 @@
       <c r="B22" s="5">
         <v>0.82509999999999994</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>0.8468</v>
       </c>
       <c r="D22">
@@ -836,7 +836,7 @@
       <c r="B24" s="3">
         <v>0.9415</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>0.96599999999999997</v>
       </c>
       <c r="D24">
@@ -1046,7 +1046,7 @@
       <c r="B39" s="4">
         <v>0.92049999999999998</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>0.94940000000000002</v>
       </c>
       <c r="D39">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.90659333333333347</v>
+        <v>0.90667333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAE764-A779-414D-B451-06FB7336098E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9838AA-67F1-486C-B5DC-ADC96954A415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -505,7 +505,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,8 +962,8 @@
       <c r="B33" s="4">
         <v>0.9133</v>
       </c>
-      <c r="C33" s="4">
-        <v>0.91259999999999997</v>
+      <c r="C33" s="7">
+        <v>0.93930000000000002</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -991,7 +991,7 @@
         <v>0.83160000000000001</v>
       </c>
       <c r="C35" s="5">
-        <v>0.82299999999999995</v>
+        <v>0.8266</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.90667333333333333</v>
+        <v>0.90734666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED/res_compare.xlsx
+++ b/3_experts_res/SEED/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res(不跨人)\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9838AA-67F1-486C-B5DC-ADC96954A415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C37451-F227-4444-AA48-6B182B3036A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -525,7 +525,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>0.94579999999999997</v>
       </c>
       <c r="C2" s="12">
@@ -543,7 +543,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="C3" s="4">
-        <v>0.91400000000000003</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -570,7 +570,7 @@
       <c r="B5" s="4">
         <v>0.93710000000000004</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.94220000000000004</v>
       </c>
       <c r="D5">
@@ -766,7 +766,7 @@
       <c r="B19" s="3">
         <v>0.95809999999999995</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.92559999999999998</v>
       </c>
       <c r="D19">
@@ -808,7 +808,7 @@
       <c r="B22" s="5">
         <v>0.82509999999999994</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>0.8468</v>
       </c>
       <c r="D22">
@@ -819,7 +819,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>0.94650000000000001</v>
       </c>
       <c r="C23" s="4">
@@ -833,10 +833,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>0.9415</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.96599999999999997</v>
       </c>
       <c r="D24">
@@ -850,7 +850,7 @@
       <c r="B25" s="4">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <v>0.95520000000000005</v>
       </c>
       <c r="D25">
@@ -875,7 +875,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>0.94940000000000002</v>
       </c>
       <c r="C27" s="4">
@@ -889,10 +889,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>0.94730000000000003</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>0.94510000000000005</v>
       </c>
       <c r="D28">
@@ -973,7 +973,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>0.94359999999999999</v>
       </c>
       <c r="C34" s="6">
@@ -1032,7 +1032,7 @@
       <c r="B38" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>0.91180000000000005</v>
       </c>
       <c r="D38">
@@ -1046,7 +1046,7 @@
       <c r="B39" s="4">
         <v>0.92049999999999998</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>0.94940000000000002</v>
       </c>
       <c r="D39">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C47">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.90734666666666663</v>
+        <v>0.9073622222222224</v>
       </c>
     </row>
   </sheetData>
